--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1241715.316842928</v>
+        <v>1302134.851702443</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6356066.625384063</v>
+        <v>6936478.693208897</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>211.8785736421041</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>123.9531819233243</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>77.98244695936047</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>188.7973936038619</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,19 +898,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>63.71968882474101</v>
+        <v>143.2708769613205</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>132.6926768109997</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>169.3086501403036</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,22 +1135,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.69092040857829</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>32.36127543482664</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1351,10 +1353,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649888</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5141848153391</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112163</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>196.924331654926</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>108.0570408708235</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615908</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>247.9967896111156</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>81.01098805494637</v>
+        <v>13.51446909089288</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2007,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>116.0222355487758</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -2050,16 +2052,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>13.99728392830732</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482707</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2087,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>19.80087630034671</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>270.5165177105038</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2482,19 +2484,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>94.43123673215325</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>98.73120706589778</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>47.61404849749811</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>48.25041423584356</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>7.26460296736313</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>278.9374345281238</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3275,16 +3277,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791323235</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>185.6225384818023</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>250.8062115987918</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>83.42661545872129</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3715,13 +3717,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>179.0861311466735</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3740,22 +3742,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>409.6676688882504</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3904,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>94.43123673215251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>77.20879366451048</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>2235.974838049816</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.119383460849</v>
+        <v>1113.68420233872</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.017324080564</v>
+        <v>988.4789680727357</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.771604420622</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>1348.380717347871</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>2009.22077188965</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>2009.22077188965</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>2009.22077188965</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="N3" t="n">
-        <v>2009.22077188965</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>2009.22077188965</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>2670.060826431428</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>822.7991990816217</v>
+        <v>760.5269815952424</v>
       </c>
       <c r="C4" t="n">
-        <v>650.2374875648467</v>
+        <v>587.9652700784674</v>
       </c>
       <c r="D4" t="n">
-        <v>484.3594947663694</v>
+        <v>587.9652700784674</v>
       </c>
       <c r="E4" t="n">
-        <v>484.3594947663694</v>
+        <v>418.2072663292046</v>
       </c>
       <c r="F4" t="n">
-        <v>307.6524407281256</v>
+        <v>418.2072663292046</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>252.6159913550323</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>112.7138170454068</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1487.429243153088</v>
+        <v>1425.157025666709</v>
       </c>
       <c r="X4" t="n">
-        <v>1242.037488486501</v>
+        <v>1179.765271000121</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.617817800609</v>
+        <v>952.3456003142296</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.583230496374</v>
+        <v>1267.176165140082</v>
       </c>
       <c r="C5" t="n">
-        <v>2041.481161720201</v>
+        <v>829.0336923235054</v>
       </c>
       <c r="D5" t="n">
-        <v>1605.571376894645</v>
+        <v>393.1239074979499</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.796632052941</v>
+        <v>363.3895666966491</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>339.5625411462609</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2262.397026790872</v>
       </c>
       <c r="V5" t="n">
-        <v>2522.045630570072</v>
+        <v>2117.678969254184</v>
       </c>
       <c r="W5" t="n">
-        <v>2521.230580021509</v>
+        <v>2116.863918705621</v>
       </c>
       <c r="X5" t="n">
-        <v>2102.08811660082</v>
+        <v>1697.721455284932</v>
       </c>
       <c r="Y5" t="n">
-        <v>2097.842396940877</v>
+        <v>1289.435331584586</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>76.4960597499347</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>348.2978018843881</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>972.3985859291672</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815.8501487926407</v>
+        <v>998.1565508175877</v>
       </c>
       <c r="C7" t="n">
-        <v>643.2884372758656</v>
+        <v>825.5948393008126</v>
       </c>
       <c r="D7" t="n">
-        <v>477.4104444773883</v>
+        <v>659.7168465023353</v>
       </c>
       <c r="E7" t="n">
-        <v>307.6524407281256</v>
+        <v>489.9588427530726</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>190.3345608991026</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.4323865894771</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.297859306881</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.507741074842</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255755</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.2504114134</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639181</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2221.768507432332</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1934.812999302763</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1662.786594889054</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.08843819752</v>
+        <v>1417.394840222467</v>
       </c>
       <c r="Y7" t="n">
-        <v>1007.668767511628</v>
+        <v>1189.975169536575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1382.829461272046</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554692</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703178</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4814,7 +4816,7 @@
         <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="V8" t="n">
-        <v>2637.372669426552</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="W8" t="n">
-        <v>2232.517214837585</v>
+        <v>2524.289942058037</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.374751416896</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y8" t="n">
-        <v>1809.129031756954</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4999,7 +5001,7 @@
         <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469974</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
         <v>1551.697666545389</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1353.67835891483</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677762</v>
+        <v>793.2056155771601</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677762</v>
+        <v>391.8077842004239</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>722.6273955810121</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1417.191591333635</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M11" t="n">
-        <v>1417.191591333635</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N11" t="n">
-        <v>1417.191591333635</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2111.755787086258</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2806.319982838881</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838881</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2607.406516520774</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2188.264053100085</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1779.977929399738</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677762</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677762</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M12" t="n">
-        <v>330.2377696303402</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N12" t="n">
-        <v>1024.801965382963</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.366161135586</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>880.9333360691619</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>708.3716245523868</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4936317539095</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>372.7356280046469</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>196.0285739664031</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>196.0285739664031</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677762</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176944</v>
       </c>
       <c r="T13" t="n">
-        <v>2382.978293430801</v>
+        <v>2538.261260176944</v>
       </c>
       <c r="U13" t="n">
-        <v>2104.545292683906</v>
+        <v>2259.828259430049</v>
       </c>
       <c r="V13" t="n">
-        <v>1817.589784554337</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1545.563380140628</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1300.171625474041</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1072.751954788149</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1323.534133440883</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>885.391660624306</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>885.391660624306</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>885.391660624306</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677762</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677762</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094007</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6905954094007</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>750.6905954094007</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094007</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2555.818175150886</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2150.962720561919</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1731.820257141229</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1323.534133440883</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677762</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>330.2377696303402</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>330.2377696303402</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L15" t="n">
-        <v>330.2377696303402</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M15" t="n">
-        <v>330.2377696303402</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N15" t="n">
-        <v>1024.801965382963</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268659</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518839</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2451.623182457402</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2173.190181710508</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1886.234673580938</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1614.20826916723</v>
       </c>
       <c r="X16" t="n">
-        <v>1327.003178987646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.003178987646</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5501,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,19 +5518,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5549,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
         <v>330.8229638057298</v>
@@ -5698,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2683.363958244297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2683.363958244297</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497402</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5786,16 +5788,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.757289365886</v>
+        <v>1035.728611060354</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>863.166899543579</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>697.2889067451017</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>527.5309029958389</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>350.8238489575951</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5929,31 +5931,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U22" t="n">
-        <v>2040.550627261643</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V22" t="n">
-        <v>1753.595119132073</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W22" t="n">
-        <v>1481.568714718365</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X22" t="n">
-        <v>1236.176960051778</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="Y22" t="n">
-        <v>1008.757289365886</v>
+        <v>1227.547229779341</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>3011.896708242392</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>2846.018715443915</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>2750.633627835679</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>2750.633627835679</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932364</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6464,16 +6466,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6546,16 +6548,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O30" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6686,64 +6688,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>3895.354312623555</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3895.354312623555</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4723.664187456951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>2669.311661405671</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>2503.720386431498</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T34" t="n">
-        <v>2538.261260176947</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>2259.828259430053</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V34" t="n">
-        <v>1978.07327505821</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W34" t="n">
-        <v>1706.046870644502</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.655115977914</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771605</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004244</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436406</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993934</v>
@@ -6980,7 +6982,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
         <v>496.4142387799021</v>
@@ -7105,40 +7107,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878948</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878948</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710509</v>
       </c>
       <c r="V37" t="n">
-        <v>1941.268395329592</v>
+        <v>1886.234673580939</v>
       </c>
       <c r="W37" t="n">
-        <v>1669.241990915884</v>
+        <v>1614.208269167231</v>
       </c>
       <c r="X37" t="n">
-        <v>1423.850236249296</v>
+        <v>1368.816514500643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>1368.816514500643</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7175,13 +7177,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7208,16 +7210,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>275.1900980402672</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7342,40 +7344,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2132.904553083697</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.949044954127</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>893.8508052319293</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>893.8508052319293</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>457.9410204063738</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>457.9410204063738</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>457.9410204063738</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5387406219835</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5387406219835</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5387406219835</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5387406219835</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2547.097680155898</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2547.097680155898</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.242225566932</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>1728.436499417184</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.150375716837</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723522</v>
+        <v>414.500552094942</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723522</v>
+        <v>414.500552094942</v>
       </c>
       <c r="L42" t="n">
-        <v>776.7542685698583</v>
+        <v>414.500552094942</v>
       </c>
       <c r="M42" t="n">
-        <v>776.7542685698583</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N42" t="n">
-        <v>776.7542685698583</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O42" t="n">
-        <v>776.7542685698583</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P42" t="n">
-        <v>1178.627222503511</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>571.6407042629868</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>405.7627114645095</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E43" t="n">
-        <v>405.7627114645095</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F43" t="n">
-        <v>310.3776238562746</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>861.3877074993405</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>423.2452346827639</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>345.2565542135613</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>345.2565542135613</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>345.2565542135613</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135613</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>491.3810871096955</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5387406219835</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219835</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022718</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2463.445806339735</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2100.828856273562</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.973401684595</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.973401684595</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>1287.687277984248</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>380.7209243387938</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1268.718533547963</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1096.156822031188</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>930.2788292327102</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>760.5208254834474</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>583.8137714452037</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>418.2224964710313</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>278.3203221614058</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>189.6603729360812</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>276.240058100771</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>550.9985126719066</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>969.2083944398677</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1428.692261620781</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1870.951064778425</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.620314004207</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2638.127207974549</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2806.319982838881</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2784.902161544253</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2784.902161544253</v>
+        <v>2700.681281130891</v>
       </c>
       <c r="T46" t="n">
-        <v>2539.022715122708</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2492.330490162707</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2205.374982033138</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1933.348577619429</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1687.956822952842</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1460.53715226695</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8216,22 +8218,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8292,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,19 +8303,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.5472142772257</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377817</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8462,10 +8464,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>233.5821297690067</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>903.3699580700804</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>651.9316575406119</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097203</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>251.0005682471274</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9240,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9419,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,19 +10114,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,13 +10363,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>393.3109354363933</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10665,16 +10667,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10823,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>651.9316575406119</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11136,31 +11138,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>405.9322767006591</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932201</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>203.882568388151</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>135.3636110865058</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>143.651671086683</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>110.9939909543961</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>161.9268490649753</v>
+        <v>229.4233680290288</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>58.91774794908554</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.651671086676</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>144.1344859240839</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.132153028921948</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>73.62918697961686</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.48800580459475</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>131.2385495991661</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>5.148518520149992</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>4.277894049994956</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>33.279741449482</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>80.50874676570932</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>96.56253959275222</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.283369898232024</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>80.50874676570882</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.3418933127894</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>583128.7659413407</v>
+        <v>565668.6630606065</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>583128.7659413407</v>
+        <v>580464.705887761</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402260.4301661954</v>
+        <v>607758.2567918887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402260.4301661954</v>
+        <v>607758.2567918887</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607758.2567918889</v>
+        <v>607758.2567918887</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607758.2567918887</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402260.4301661954</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402260.4301661954</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>415514.1729150667</v>
+      </c>
+      <c r="C2" t="n">
         <v>415514.1729150665</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>415514.1729150666</v>
       </c>
-      <c r="D2" t="n">
-        <v>415514.1729150665</v>
-      </c>
       <c r="E2" t="n">
-        <v>270253.5357583609</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583609</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="K2" t="n">
         <v>408314.627706448</v>
@@ -26344,16 +26346,16 @@
         <v>408314.627706448</v>
       </c>
       <c r="M2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="N2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501624</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.5955499827</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045613</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877257</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662226</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340735</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173889.535266443</v>
+        <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>173889.535266443</v>
+        <v>179718.6327917065</v>
       </c>
       <c r="D4" t="n">
         <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>62797.73829708053</v>
+        <v>94878.4446487528</v>
       </c>
       <c r="F4" t="n">
-        <v>62797.73829708053</v>
+        <v>94878.4446487528</v>
       </c>
       <c r="G4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="H4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="I4" t="n">
         <v>94878.44464875291</v>
       </c>
-      <c r="H4" t="n">
-        <v>94878.44464875285</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="K4" t="n">
         <v>94878.44464875288</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>94878.44464875291</v>
+      </c>
+      <c r="M4" t="n">
+        <v>94878.4446487528</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875288</v>
       </c>
-      <c r="K4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="L4" t="n">
-        <v>94878.44464875288</v>
-      </c>
-      <c r="M4" t="n">
-        <v>94878.44464875291</v>
-      </c>
-      <c r="N4" t="n">
-        <v>94878.44464875289</v>
-      </c>
-      <c r="O4" t="n">
-        <v>62797.73829708053</v>
-      </c>
       <c r="P4" t="n">
-        <v>62797.73829708053</v>
+        <v>94878.44464875292</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56287.58549717905</v>
+        <v>1804.964680916491</v>
       </c>
       <c r="C6" t="n">
-        <v>167412.1130868659</v>
+        <v>97251.55842034117</v>
       </c>
       <c r="D6" t="n">
-        <v>167412.1130868657</v>
+        <v>155884.5175368831</v>
       </c>
       <c r="E6" t="n">
-        <v>154628.7371216732</v>
+        <v>53362.83523085306</v>
       </c>
       <c r="F6" t="n">
-        <v>164799.7337221293</v>
+        <v>235717.9444519026</v>
       </c>
       <c r="G6" t="n">
-        <v>77658.46750579332</v>
+        <v>235717.9444519027</v>
       </c>
       <c r="H6" t="n">
         <v>235717.9444519026</v>
       </c>
       <c r="I6" t="n">
-        <v>235717.9444519026</v>
+        <v>235717.9444519025</v>
       </c>
       <c r="J6" t="n">
-        <v>61066.59573419642</v>
+        <v>124703.4791069124</v>
       </c>
       <c r="K6" t="n">
-        <v>235717.9444519025</v>
+        <v>182672.08981313</v>
       </c>
       <c r="L6" t="n">
-        <v>235717.9444519026</v>
+        <v>226325.6427252803</v>
       </c>
       <c r="M6" t="n">
-        <v>227228.8627485618</v>
+        <v>83517.7735139149</v>
       </c>
       <c r="N6" t="n">
         <v>235717.9444519026</v>
       </c>
       <c r="O6" t="n">
-        <v>164799.7337221293</v>
+        <v>235717.9444519026</v>
       </c>
       <c r="P6" t="n">
-        <v>164799.7337221293</v>
+        <v>235717.9444519026</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939317</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186327</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939318</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186327</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483595</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939317</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186327</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27436,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>147.1122069234077</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>290.9978568631581</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.79090277371094</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>80.5087467657095</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,19 +27618,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>295.2710917407707</v>
+        <v>215.7199036041912</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>42.24730668686166</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>73.62918697961805</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>157.1756344471135</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>326.6295051306851</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28071,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>111.4236523045826</v>
       </c>
       <c r="X10" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28779,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30280,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.91971315289126e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30414,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>318.6828073078734</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34936,22 +34938,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.80589558611155</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.5472142772257</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377817</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>226.6534083847602</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>233.5821297690067</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>903.3699580700804</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512902</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>651.9316575406119</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>276.8801716904673</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097203</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O15" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955965</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>288.7351832965069</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>251.0005682471274</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35960,19 +35962,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821571</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36612,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>756.3484258820585</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>393.3109354363933</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982801</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37473,7 +37475,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955974</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37543,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N38" t="n">
-        <v>257.101999686301</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37710,7 +37712,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956037</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512943</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>651.9316575406119</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>405.9322767006591</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932201</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097203</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>301.546314668241</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38184,7 +38186,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1302134.851702443</v>
+        <v>1301609.66933341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916863</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -670,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>350.8700747665493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>123.9531819233243</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -819,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>159.1000412385906</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>77.98244695936047</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,7 +898,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>143.2708769613205</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>391.9068567923742</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>132.6926768109997</v>
+        <v>34.06158462965423</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>138.4899563476403</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1147,13 +1147,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>60.69092040857829</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1341,19 +1341,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>157.8824880649888</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112163</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735226122</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>140.4342819615908</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>13.51446909089288</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1903,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>116.0222355487758</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735226122</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>19.80087630034671</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2490,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>47.61404849749811</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.25041423584356</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>120.1838601509832</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>7.26460296736313</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,16 +3277,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791323235</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.6225384818023</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3669,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>83.42661545872129</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>75.86622810092757</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735226111</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573255</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>449.961607123969</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>418.0922263388176</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>388.3578855375168</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>988.4789680727357</v>
+        <v>914.6089660449919</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.1928443723891</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>60.00734176206595</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.5269815952424</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="C4" t="n">
-        <v>587.9652700784674</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="D4" t="n">
-        <v>587.9652700784674</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="E4" t="n">
-        <v>418.2072663292046</v>
+        <v>194.6507809638211</v>
       </c>
       <c r="F4" t="n">
-        <v>418.2072663292046</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>252.6159913550323</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>112.7138170454068</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.765271000121</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.3456003142296</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.176165140082</v>
+        <v>574.0056065428944</v>
       </c>
       <c r="C5" t="n">
-        <v>829.0336923235054</v>
+        <v>539.9035377667217</v>
       </c>
       <c r="D5" t="n">
-        <v>393.1239074979499</v>
+        <v>103.9937529411662</v>
       </c>
       <c r="E5" t="n">
-        <v>363.3895666966491</v>
+        <v>74.25941213986546</v>
       </c>
       <c r="F5" t="n">
-        <v>339.5625411462609</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462609</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="H5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="I5" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423952</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087174</v>
+        <v>1109.787858087176</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.86569471743</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.86569471743</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.86569471743</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1181.86569471743</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1805.966478762211</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2352.465264720806</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473863</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473855</v>
+        <v>2437.9674556577</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473855</v>
+        <v>2437.9674556577</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.397026790872</v>
+        <v>2178.745152974717</v>
       </c>
       <c r="V5" t="n">
-        <v>2117.678969254184</v>
+        <v>1816.128202908543</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.863918705621</v>
+        <v>1411.272748319577</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.721455284932</v>
+        <v>992.1302848988872</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.435331584586</v>
+        <v>596.2647729873981</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326478</v>
       </c>
       <c r="H6" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="I6" t="n">
-        <v>76.4960597499347</v>
+        <v>76.49605974993486</v>
       </c>
       <c r="J6" t="n">
-        <v>76.4960597499347</v>
+        <v>401.0543847161472</v>
       </c>
       <c r="K6" t="n">
-        <v>76.4960597499347</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>76.4960597499347</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>348.2978018843881</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>972.3985859291672</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4688,10 +4688,10 @@
         <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>998.1565508175877</v>
+        <v>593.0357356940472</v>
       </c>
       <c r="C7" t="n">
-        <v>825.5948393008126</v>
+        <v>420.4740241772721</v>
       </c>
       <c r="D7" t="n">
-        <v>659.7168465023353</v>
+        <v>254.5960313787948</v>
       </c>
       <c r="E7" t="n">
-        <v>489.9588427530726</v>
+        <v>84.83802762953204</v>
       </c>
       <c r="F7" t="n">
-        <v>355.9258358732749</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="G7" t="n">
-        <v>190.3345608991026</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="H7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="I7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4323865894771</v>
+        <v>50.43238658947725</v>
       </c>
       <c r="K7" t="n">
-        <v>266.297859306881</v>
+        <v>325.1908411606129</v>
       </c>
       <c r="L7" t="n">
-        <v>684.507741074842</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255755</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.2504114134</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639181</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473863</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2500.201508179235</v>
       </c>
       <c r="S7" t="n">
-        <v>2500.201508179227</v>
+        <v>2340.960139477231</v>
       </c>
       <c r="T7" t="n">
-        <v>2500.201508179227</v>
+        <v>2095.080693055686</v>
       </c>
       <c r="U7" t="n">
-        <v>2221.768507432332</v>
+        <v>1816.647692308792</v>
       </c>
       <c r="V7" t="n">
-        <v>1934.812999302763</v>
+        <v>1529.692184179222</v>
       </c>
       <c r="W7" t="n">
-        <v>1662.786594889054</v>
+        <v>1257.665779765514</v>
       </c>
       <c r="X7" t="n">
-        <v>1417.394840222467</v>
+        <v>1012.274025098926</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.975169536575</v>
+        <v>784.8543544130343</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.602188492498</v>
+        <v>2181.370006515797</v>
       </c>
       <c r="C8" t="n">
-        <v>1640.500119716325</v>
+        <v>2041.481161720201</v>
       </c>
       <c r="D8" t="n">
-        <v>1204.590334890769</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2525.1049926066</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2525.1049926066</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2525.1049926066</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>2524.289942058037</v>
+        <v>2222.976952000528</v>
       </c>
       <c r="X8" t="n">
-        <v>2105.147478637348</v>
+        <v>2207.874892620243</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.901758977405</v>
+        <v>2203.629172960301</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4989,16 +4989,16 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
         <v>1797.089421211977</v>
@@ -5020,7 +5020,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771601</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004239</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,13 +5044,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5086,7 +5086,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134677</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134677</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5211,40 +5211,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878947</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176944</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T13" t="n">
-        <v>2538.261260176944</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.828259430049</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5284,10 +5284,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5305,22 +5305,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136697</v>
@@ -5357,25 +5357,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
         <v>1648.327823655249</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5448,40 +5448,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113119</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338901</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309243</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457402</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.20826916723</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5503,25 +5503,25 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
         <v>1463.168637987181</v>
@@ -5554,13 +5554,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>970.996046390399</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736239</v>
       </c>
       <c r="D19" t="n">
-        <v>617.7751448769883</v>
+        <v>632.5563420751466</v>
       </c>
       <c r="E19" t="n">
-        <v>448.0171411277256</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057298</v>
+        <v>286.0912842876401</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134677</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5682,43 +5682,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109386</v>
       </c>
     </row>
     <row r="20">
@@ -5740,64 +5740,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1035.728611060354</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>863.166899543579</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>697.2889067451017</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.5309029958389</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>350.8238489575951</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5931,31 +5931,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878954</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878941</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1454.966900465233</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1227.547229779341</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,25 +5998,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T23" t="n">
         <v>4809.322912595856</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,52 +6214,52 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V26" t="n">
         <v>4187.483659846699</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1286.300469346935</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.300469346935</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2443.348304557486</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
         <v>3569.079287993933</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2597.522611637232</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2351.643165215688</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2073.210164468793</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,16 +6703,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
         <v>5113.042013538981</v>
@@ -6724,28 +6724,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2846.018715443915</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2669.311661405671</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2503.720386431498</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771605</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004244</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436406</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993934</v>
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7107,40 +7107,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.55153211312</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338902</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309244</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173576</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878948</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1614.208269167231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.816514500643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1368.816514500643</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>451.897152078511</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>275.1900980402672</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7341,43 +7341,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955476</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.55153211312</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7423,40 +7423,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7654,10 +7654,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130891</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684658</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611155</v>
+        <v>72.80589558611518</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,28 +8294,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684658</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741663</v>
       </c>
       <c r="M6" t="n">
-        <v>274.5472142772257</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377817</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238466</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8692,16 +8692,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>903.3699580700804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>288.7351832965069</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9242,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9421,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9898,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-5.35127896428318e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11138,10 +11138,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.71657238081019</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>143.651671086683</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>229.4233680290288</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>58.91774794908554</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.446375214268</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>144.1344859240839</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.6500182959537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>37.46509486400015</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.2385495991661</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.277894049994956</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627249</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>80.50874676570932</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>81.78272691405573</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627222</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>580464.705887761</v>
+        <v>580464.7058877611</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607758.2567918887</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607758.2567918887</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>607758.2567918887</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607758.2567918887</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607758.2567918887</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607758.2567918889</v>
+        <v>607758.2567918887</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415514.1729150667</v>
+        <v>415514.1729150668</v>
       </c>
       <c r="C2" t="n">
         <v>415514.1729150665</v>
       </c>
       <c r="D2" t="n">
-        <v>415514.1729150666</v>
+        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
         <v>408314.6277064481</v>
@@ -26331,7 +26331,7 @@
         <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26346,16 +26346,16 @@
         <v>408314.627706448</v>
       </c>
       <c r="M2" t="n">
+        <v>408314.627706448</v>
+      </c>
+      <c r="N2" t="n">
         <v>408314.6277064479</v>
-      </c>
-      <c r="N2" t="n">
-        <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501624</v>
+        <v>66587.76789501685</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.5955499827</v>
+        <v>11527.59554998211</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877257</v>
+        <v>53045.85463877313</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.30172662226</v>
+        <v>9392.301726621774</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,19 +26420,19 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>179718.6327917065</v>
+        <v>179718.6327917062</v>
       </c>
       <c r="D4" t="n">
-        <v>173889.5352664431</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>94878.4446487528</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.4446487528</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875286</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="H4" t="n">
         <v>94878.44464875289</v>
@@ -26444,22 +26444,22 @@
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875288</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="L4" t="n">
+        <v>94878.44464875289</v>
+      </c>
+      <c r="M4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="O4" t="n">
+        <v>94878.44464875285</v>
+      </c>
+      <c r="P4" t="n">
         <v>94878.44464875291</v>
-      </c>
-      <c r="M4" t="n">
-        <v>94878.4446487528</v>
-      </c>
-      <c r="N4" t="n">
-        <v>94878.44464875283</v>
-      </c>
-      <c r="O4" t="n">
-        <v>94878.44464875288</v>
-      </c>
-      <c r="P4" t="n">
-        <v>94878.44464875292</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800271</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26493,7 +26493,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1804.964680916491</v>
+        <v>1804.964680916579</v>
       </c>
       <c r="C6" t="n">
-        <v>97251.55842034117</v>
+        <v>97251.55842034071</v>
       </c>
       <c r="D6" t="n">
-        <v>155884.5175368831</v>
+        <v>155884.5175368837</v>
       </c>
       <c r="E6" t="n">
-        <v>53362.83523085306</v>
+        <v>53339.61089147024</v>
       </c>
       <c r="F6" t="n">
-        <v>235717.9444519026</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="G6" t="n">
-        <v>235717.9444519027</v>
+        <v>235694.72011252</v>
       </c>
       <c r="H6" t="n">
-        <v>235717.9444519026</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="I6" t="n">
-        <v>235717.9444519025</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="J6" t="n">
-        <v>124703.4791069124</v>
+        <v>124680.2547675297</v>
       </c>
       <c r="K6" t="n">
-        <v>182672.08981313</v>
+        <v>182648.8654737468</v>
       </c>
       <c r="L6" t="n">
-        <v>226325.6427252803</v>
+        <v>226302.4183858982</v>
       </c>
       <c r="M6" t="n">
-        <v>83517.7735139149</v>
+        <v>83494.54917453229</v>
       </c>
       <c r="N6" t="n">
-        <v>235717.9444519026</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="O6" t="n">
-        <v>235717.9444519026</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="P6" t="n">
-        <v>235717.9444519026</v>
+        <v>235694.7201125199</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684657</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483614</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939317</v>
+        <v>37.11037423939126</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483616</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939318</v>
+        <v>37.11037423939126</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483595</v>
+        <v>206.1089748483614</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939317</v>
+        <v>37.11037423939126</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27390,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>72.71868052833503</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27444,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>290.9978568631581</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>15.83994225927069</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>9.79090277371094</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>215.7199036041912</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>12.29640567096891</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.24730668686166</v>
+        <v>140.8783988682071</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>295.2710917407707</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>157.1756344471135</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28061,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28626,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30188,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>8.280191347391034e-13</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30413,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-3.319655661471188e-12</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684658</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611155</v>
+        <v>72.80589558611518</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>630.4048323684656</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35014,28 +35014,28 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684658</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741663</v>
       </c>
       <c r="M6" t="n">
-        <v>274.5472142772257</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094343</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377817</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238466</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35412,16 +35412,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>903.3699580700804</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35579,10 +35579,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956047</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512902</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35725,7 +35725,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35816,7 +35816,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637955965</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512943</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>288.7351832965069</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35962,19 +35962,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>289.0667057209139</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36050,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36132,19 +36132,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821571</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36606,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36618,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36834,19 +36834,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>756.3484258820585</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.607610910837077e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>110.0804674982801</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37475,7 +37475,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637955974</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512943</v>
@@ -37484,7 +37484,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821548</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37624,22 +37624,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37709,7 +37709,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645554</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37858,10 +37858,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
